--- a/medicine/Enfance/Tim_Winton/Tim_Winton.xlsx
+++ b/medicine/Enfance/Tim_Winton/Tim_Winton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tim Winton, né Timothy John Winton le 4 août 1960 à Perth en Australie-Occidentale, est un écrivain australien.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tim Winton est l’auteur de romans, de nouvelles ainsi que de nombreux livres pour enfants.
-Il est engagé pour la protection de l'environnement[1].
+Il est engagé pour la protection de l'environnement.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-(en) An Open Swimmer, 1982
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) An Open Swimmer, 1982
 (en) Shallows, 1984Prix Miles Franklin 1984
 Cet œil, le ciel, Les Belles Lettres, coll. « Collection de littérature étrangère », 1991 ((en) That Eye, the Sky, 1986), trad. Mickael Korvin, 182 p.  (ISBN 2-251-33706-7)
 Les Ombres en hiver, Rivages, coll. « Collection de littérature étrangère », 2000 ((en) In the Winter Dark, 1988), trad. Nadine Gassié, 173 p.  (ISBN 2-7436-0690-8)
@@ -556,13 +575,81 @@
 Par-dessus le bord du monde, Rivages, coll. « Collection de littérature étrangère », 2003 ((en) Dirt Music, 2001), trad. Nadine Gassié, 418 p.  (ISBN 2-7436-1183-9)Prix Miles Franklin 2002
 Respire, Rivages, coll. « Collection de littérature étrangère », 2009 ((en) Breath, 2008), trad. Nadine Gassié, 221 p.  (ISBN 978-2-7436-1914-5)Prix Miles Franklin 2009
 (en) Eyrie, 2013
-La Cavale de Jaxie Clackton, Gallimard, coll. « La Noire », 2021 ((en) The sepherd’s Hut, 2018), trad. Jean Esch, 304 p.  (ISBN 978-2-07-288521-1)Réédition, Gallimard, coll. « Folio policier » no 974, 2022, 320 p.  (ISBN 978-2-07-296577-7)
-Romans jeunesse
-L’amour est la septième vague, L'École des loisirs, coll. « Medium », 1998 ((en) Lockie Leonard, Human Torpedo, 1990), trad. Nadine Gassié, 179 p.  (ISBN 2-211-04749-1)
+La Cavale de Jaxie Clackton, Gallimard, coll. « La Noire », 2021 ((en) The sepherd’s Hut, 2018), trad. Jean Esch, 304 p.  (ISBN 978-2-07-288521-1)Réédition, Gallimard, coll. « Folio policier » no 974, 2022, 320 p.  (ISBN 978-2-07-296577-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tim_Winton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tim_Winton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’amour est la septième vague, L'École des loisirs, coll. « Medium », 1998 ((en) Lockie Leonard, Human Torpedo, 1990), trad. Nadine Gassié, 179 p.  (ISBN 2-211-04749-1)
 Demain et le jour suivant, L'École des loisirs, coll. « Medium », 2001 ((en) Lockie Leonard, Scumbuster, 1993), trad. Nadine Gassié, 166 p.  (ISBN 2-211-05749-7)
-Tu es une légende, L'École des loisirs, coll. « Medium », 2003 ((en) Lockie Leonard, Legend, 1997), trad. Nadine Gassié, 189 p.  (ISBN 2-211-06662-3)
-Recueils de nouvelles
-Scission, Rivages, coll. « Collection de littérature étrangère », 2014 ((en) Scission, 1985), trad. Nadine Gassié et Océane Bies, 180 p.  (ISBN 978-2-7436-2733-1)
+Tu es une légende, L'École des loisirs, coll. « Medium », 2003 ((en) Lockie Leonard, Legend, 1997), trad. Nadine Gassié, 189 p.  (ISBN 2-211-06662-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tim_Winton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tim_Winton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scission, Rivages, coll. « Collection de littérature étrangère », 2014 ((en) Scission, 1985), trad. Nadine Gassié et Océane Bies, 180 p.  (ISBN 978-2-7436-2733-1)
 (en) A Blow, A Kiss, 1985
 (en) Minimum Of Two, 1987
 Angélus, Rivages, coll. « Collection de littérature étrangère », 2006 ((en) The Turning, 2005), trad. Nadine Gassié, 324 p.  (ISBN 2-7436-1580-X)</t>
